--- a/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 12,45</t>
+          <t>1,03; 13,21</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 10,33</t>
+          <t>-0,67; 10,61</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 17,3</t>
+          <t>2,57; 17,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,11</t>
+          <t>-4,79; 7,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 13,51</t>
+          <t>3,59; 12,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,28</t>
+          <t>-1,61; 7,1</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 137,54</t>
+          <t>5,17; 144,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 112,03</t>
+          <t>-5,99; 116,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 117,68</t>
+          <t>10,18; 119,06</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 49,03</t>
+          <t>-20,92; 52,23</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 104,3</t>
+          <t>20,37; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 56,42</t>
+          <t>-8,76; 54,86</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,59</t>
+          <t>-2,3; 6,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,66</t>
+          <t>-4,39; 4,08</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,38</t>
+          <t>0,19; 9,56</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,18</t>
+          <t>-2,49; 8,39</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 1,7</t>
+          <t>-8,68; 1,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,52</t>
+          <t>-5,39; 4,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,58</t>
+          <t>-0,8; 6,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,88</t>
+          <t>-5,29; 1,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,95</t>
+          <t>-1,14; 5,93</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 73,93</t>
+          <t>-15,63; 67,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 35,99</t>
+          <t>-31,21; 41,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 91,22</t>
+          <t>1,22; 91,3</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 37,44</t>
+          <t>-9,52; 38,3</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 8,36</t>
+          <t>-33,33; 9,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 20,82</t>
+          <t>-19,93; 20,74</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 38,2</t>
+          <t>-4,17; 39,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 12,04</t>
+          <t>-26,35; 9,19</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 35,58</t>
+          <t>-6,65; 34,12</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,14</t>
+          <t>2,28; 12,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 10,58</t>
+          <t>1,3; 10,4</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,96</t>
+          <t>1,48; 10,42</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,89</t>
+          <t>-4,13; 8,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,46</t>
+          <t>-8,17; 4,12</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,7</t>
+          <t>-6,88; 4,07</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,75</t>
+          <t>0,16; 8,65</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,01</t>
+          <t>-2,18; 6,41</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 6,0</t>
+          <t>-1,53; 5,7</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 227,0</t>
+          <t>20,98; 225,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 208,56</t>
+          <t>9,92; 189,9</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 200,46</t>
+          <t>14,14; 199,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 42,4</t>
+          <t>-17,54; 45,55</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 25,21</t>
+          <t>-33,03; 22,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 19,94</t>
+          <t>-27,17; 23,82</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 69,25</t>
+          <t>-0,06; 67,88</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 48,26</t>
+          <t>-12,51; 50,43</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 48,2</t>
+          <t>-9,1; 45,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,04</t>
+          <t>2,01; 10,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,0</t>
+          <t>0,76; 9,94</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 15,97</t>
+          <t>4,15; 15,2</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 14,57</t>
+          <t>3,99; 14,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 12,38</t>
+          <t>-0,69; 11,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,43</t>
+          <t>-4,56; 6,45</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,19</t>
+          <t>4,0; 11,15</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,44</t>
+          <t>1,77; 9,32</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,02</t>
+          <t>2,07; 9,44</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,09; 148,72</t>
+          <t>15,34; 146,92</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 132,88</t>
+          <t>7,29; 139,1</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,6; 212,31</t>
+          <t>36,27; 211,89</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,7; 84,8</t>
+          <t>16,95; 83,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 66,45</t>
+          <t>-3,07; 67,54</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 37,34</t>
+          <t>-19,13; 36,9</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,12; 84,76</t>
+          <t>23,07; 86,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,78; 72,34</t>
+          <t>9,64; 71,81</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,79; 76,91</t>
+          <t>12,78; 71,73</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 16,14</t>
+          <t>3,35; 15,74</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,89</t>
+          <t>-0,3; 11,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,68</t>
+          <t>0,19; 9,79</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 19,7</t>
+          <t>3,56; 20,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 13,21</t>
+          <t>-2,56; 13,41</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 11,54</t>
+          <t>-2,46; 11,51</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 15,62</t>
+          <t>5,2; 15,54</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 9,96</t>
+          <t>0,08; 9,76</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,62</t>
+          <t>0,39; 9,16</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>28,61; 320,99</t>
+          <t>29,79; 334,96</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 219,75</t>
+          <t>-4,86; 217,24</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 196,64</t>
+          <t>2,64; 205,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,06; 153,15</t>
+          <t>17,02; 156,95</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 110,39</t>
+          <t>-14,2; 101,46</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 89,25</t>
+          <t>-12,32; 89,62</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>32,88; 159,49</t>
+          <t>33,74; 152,9</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,73; 102,52</t>
+          <t>1,79; 95,3</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,33; 100,93</t>
+          <t>3,11; 93,79</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,25</t>
+          <t>1,84; 13,76</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,55; 16,2</t>
+          <t>4,11; 16,17</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 4,17</t>
+          <t>-4,6; 4,53</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 10,15</t>
+          <t>-5,54; 9,38</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 13,85</t>
+          <t>-1,62; 14,06</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -2,39</t>
+          <t>-13,89; -1,94</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,63</t>
+          <t>0,04; 9,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,49; 12,79</t>
+          <t>2,8; 12,33</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -0,31</t>
+          <t>-8,05; -0,46</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,44; 157,41</t>
+          <t>10,83; 171,96</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>23,65; 193,09</t>
+          <t>29,83; 194,82</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 49,92</t>
+          <t>-35,52; 56,26</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 47,16</t>
+          <t>-19,57; 43,47</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 65,65</t>
+          <t>-6,02; 65,26</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -10,42</t>
+          <t>-47,85; -8,8</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 60,51</t>
+          <t>0,16; 62,14</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>12,47; 81,79</t>
+          <t>13,39; 77,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,03; -2,34</t>
+          <t>-38,99; -2,65</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,82</t>
+          <t>-3,58; 3,94</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,11</t>
+          <t>-2,54; 4,85</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 8,64</t>
+          <t>0,21; 8,15</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,92</t>
+          <t>-2,51; 6,99</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,37</t>
+          <t>-4,31; 4,64</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 4,28</t>
+          <t>-9,26; 4,55</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,0</t>
+          <t>-2,14; 3,85</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,48</t>
+          <t>-2,63; 3,19</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,24</t>
+          <t>-2,77; 5,35</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 37,83</t>
+          <t>-25,59; 37,42</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 49,95</t>
+          <t>-19,32; 44,71</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,78; 82,58</t>
+          <t>0,7; 76,25</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 36,22</t>
+          <t>-10,8; 37,68</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 23,59</t>
+          <t>-18,6; 24,49</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 21,33</t>
+          <t>-39,61; 22,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 25,73</t>
+          <t>-11,33; 24,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 21,68</t>
+          <t>-14,03; 20,26</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 33,19</t>
+          <t>-15,41; 33,25</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,54</t>
+          <t>-2,53; 4,36</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,86</t>
+          <t>-4,86; 1,71</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 22,46</t>
+          <t>-0,96; 22,96</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,06</t>
+          <t>-4,03; 4,37</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,62</t>
+          <t>-5,62; 2,72</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,37</t>
+          <t>-0,72; 7,45</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,21</t>
+          <t>-2,11; 3,33</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,2</t>
+          <t>-4,07; 1,05</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,66; 13,0</t>
+          <t>0,79; 13,56</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 39,12</t>
+          <t>-17,52; 37,7</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 16,79</t>
+          <t>-31,94; 15,26</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 193,06</t>
+          <t>-7,64; 196,18</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 21,59</t>
+          <t>-17,62; 23,4</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 14,15</t>
+          <t>-24,39; 15,14</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 38,44</t>
+          <t>-3,12; 39,92</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 19,73</t>
+          <t>-11,55; 20,91</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 7,54</t>
+          <t>-22,13; 6,51</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>3,32; 79,41</t>
+          <t>4,22; 79,78</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,7; 5,28</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>1,01; 4,24</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,72</t>
+          <t>3,08; 9,74</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>1,57; 5,78</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-0,79; 3,55</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,38</t>
+          <t>-2,6; 2,44</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,33; 5,05</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>0,72; 3,33</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,94</t>
+          <t>1,32; 5,09</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,07; 47,82</t>
+          <t>14,66; 50,7</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>9,67; 41,93</t>
+          <t>8,03; 40,57</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,31; 90,4</t>
+          <t>25,57; 87,3</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,21</t>
+          <t>7,08; 28,32</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,63</t>
+          <t>-3,56; 17,1</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 11,75</t>
+          <t>-11,41; 11,95</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>14,06; 32,16</t>
+          <t>13,49; 32,03</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>3,8; 20,9</t>
+          <t>4,28; 21,34</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>7,45; 30,43</t>
+          <t>7,3; 31,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,03; 13,21</t>
+          <t>0,27; 12,82</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,67; 10,61</t>
+          <t>-1,86; 9,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 17,41</t>
+          <t>3,05; 16,82</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 7,3</t>
+          <t>-4,56; 7,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,59; 12,95</t>
+          <t>3,07; 13,1</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,61; 7,1</t>
+          <t>-1,03; 6,81</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,17; 144,23</t>
+          <t>1,46; 138,16</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 116,55</t>
+          <t>-13,02; 104,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>10,18; 119,06</t>
+          <t>12,7; 117,59</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,92; 52,23</t>
+          <t>-20,62; 46,55</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,37; 100,0</t>
+          <t>15,98; 103,11</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-8,76; 54,86</t>
+          <t>-6,35; 52,97</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,3; 6,98</t>
+          <t>-1,73; 7,39</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 4,08</t>
+          <t>-4,4; 4,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,19; 9,56</t>
+          <t>0,86; 9,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 8,39</t>
+          <t>-2,63; 8,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,68; 1,99</t>
+          <t>-8,62; 1,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,39; 4,38</t>
+          <t>-5,59; 4,5</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 6,59</t>
+          <t>-0,53; 7,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,56</t>
+          <t>-5,02; 1,54</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 5,93</t>
+          <t>-1,32; 5,68</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-15,63; 67,68</t>
+          <t>-12,83; 75,68</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-31,21; 41,39</t>
+          <t>-29,86; 40,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,22; 91,3</t>
+          <t>4,9; 100,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,52; 38,3</t>
+          <t>-9,63; 38,35</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,33; 9,11</t>
+          <t>-31,24; 8,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 20,74</t>
+          <t>-19,71; 20,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 39,64</t>
+          <t>-2,87; 42,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 9,19</t>
+          <t>-25,32; 9,32</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,65; 34,12</t>
+          <t>-6,7; 34,34</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,28; 12,31</t>
+          <t>2,51; 12,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,3; 10,4</t>
+          <t>1,52; 11,02</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,42</t>
+          <t>1,5; 10,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 8,67</t>
+          <t>-5,45; 8,15</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,17; 4,12</t>
+          <t>-8,18; 5,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 4,07</t>
+          <t>-7,44; 4,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,16; 8,65</t>
+          <t>-0,32; 8,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,18; 6,41</t>
+          <t>-2,22; 5,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,53; 5,7</t>
+          <t>-1,68; 5,6</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>20,98; 225,27</t>
+          <t>22,95; 220,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>9,92; 189,9</t>
+          <t>12,5; 220,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,14; 199,99</t>
+          <t>13,11; 196,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,54; 45,55</t>
+          <t>-21,35; 46,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,03; 22,22</t>
+          <t>-33,77; 27,63</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,17; 23,82</t>
+          <t>-30,0; 22,79</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,06; 67,88</t>
+          <t>-2,37; 62,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,51; 50,43</t>
+          <t>-13,04; 47,24</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 45,5</t>
+          <t>-9,62; 45,34</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,01; 10,23</t>
+          <t>1,76; 10,83</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,76; 9,94</t>
+          <t>0,54; 9,9</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,15; 15,2</t>
+          <t>4,0; 15,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,99; 14,35</t>
+          <t>4,37; 14,78</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 11,78</t>
+          <t>-0,82; 11,83</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 6,45</t>
+          <t>-4,66; 6,76</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 11,15</t>
+          <t>4,18; 11,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,77; 9,32</t>
+          <t>1,39; 9,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,44</t>
+          <t>1,97; 9,52</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,34; 146,92</t>
+          <t>13,19; 149,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7,29; 139,1</t>
+          <t>2,81; 140,38</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>36,27; 211,89</t>
+          <t>32,19; 214,48</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,95; 83,39</t>
+          <t>18,63; 89,39</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,07; 67,54</t>
+          <t>-3,09; 67,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,13; 36,9</t>
+          <t>-19,59; 37,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,07; 86,78</t>
+          <t>23,32; 85,57</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,64; 71,81</t>
+          <t>8,15; 72,01</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,78; 71,73</t>
+          <t>12,48; 73,8</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,35; 15,74</t>
+          <t>2,09; 16,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 11,18</t>
+          <t>-0,43; 10,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0,19; 9,79</t>
+          <t>-0,4; 9,47</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>3,56; 20,15</t>
+          <t>4,48; 20,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 13,41</t>
+          <t>-2,42; 13,54</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,46; 11,51</t>
+          <t>-4,75; 11,6</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,2; 15,54</t>
+          <t>5,26; 15,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 9,76</t>
+          <t>0,48; 10,36</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,39; 9,16</t>
+          <t>0,41; 9,64</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>29,79; 334,96</t>
+          <t>14,16; 316,62</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 217,24</t>
+          <t>-9,46; 195,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>2,64; 205,64</t>
+          <t>-7,28; 176,75</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>17,02; 156,95</t>
+          <t>20,94; 158,74</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 101,46</t>
+          <t>-12,65; 103,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-12,32; 89,62</t>
+          <t>-21,25; 89,56</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>33,74; 152,9</t>
+          <t>36,19; 161,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,79; 95,3</t>
+          <t>1,89; 102,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>3,11; 93,79</t>
+          <t>2,67; 101,59</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,84; 13,76</t>
+          <t>1,88; 13,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>4,11; 16,17</t>
+          <t>3,66; 16,44</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 4,53</t>
+          <t>-4,82; 4,75</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 9,38</t>
+          <t>-5,54; 9,89</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 14,06</t>
+          <t>-1,67; 13,17</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -1,94</t>
+          <t>-14,3; -2,31</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,04; 9,55</t>
+          <t>-0,33; 9,76</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,8; 12,33</t>
+          <t>3,35; 13,23</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,05; -0,46</t>
+          <t>-8,39; -0,52</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,83; 171,96</t>
+          <t>13,35; 164,28</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>29,83; 194,82</t>
+          <t>24,61; 194,08</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-35,52; 56,26</t>
+          <t>-37,4; 61,65</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 43,47</t>
+          <t>-18,81; 46,95</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 65,26</t>
+          <t>-6,08; 61,86</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,85; -8,8</t>
+          <t>-48,52; -10,51</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>0,16; 62,14</t>
+          <t>-2,67; 59,54</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>13,39; 77,79</t>
+          <t>15,45; 83,02</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-38,99; -2,65</t>
+          <t>-39,8; -2,87</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 3,94</t>
+          <t>-3,92; 3,64</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 4,85</t>
+          <t>-2,65; 4,93</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,21; 8,15</t>
+          <t>0,02; 8,65</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 6,99</t>
+          <t>-2,48; 7,01</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 4,64</t>
+          <t>-4,72; 4,48</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,26; 4,55</t>
+          <t>-9,12; 4,68</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-2,14; 3,85</t>
+          <t>-1,99; 4,15</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 3,19</t>
+          <t>-2,39; 3,54</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 5,35</t>
+          <t>-2,78; 5,34</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,59; 37,42</t>
+          <t>-27,29; 34,76</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,32; 44,71</t>
+          <t>-19,57; 48,58</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,7; 76,25</t>
+          <t>0,44; 82,76</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,8; 37,68</t>
+          <t>-10,67; 37,9</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-18,6; 24,49</t>
+          <t>-20,14; 22,94</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-39,61; 22,95</t>
+          <t>-38,77; 23,14</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-11,33; 24,21</t>
+          <t>-10,58; 27,21</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,03; 20,26</t>
+          <t>-12,89; 22,7</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,41; 33,25</t>
+          <t>-15,07; 33,78</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 4,36</t>
+          <t>-2,4; 4,61</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 1,71</t>
+          <t>-4,84; 1,96</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 22,96</t>
+          <t>-0,95; 22,69</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 4,37</t>
+          <t>-3,55; 4,82</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,62; 2,72</t>
+          <t>-5,3; 3,03</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 7,45</t>
+          <t>-0,6; 7,39</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,11; 3,33</t>
+          <t>-1,84; 3,66</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 1,05</t>
+          <t>-3,96; 1,23</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,79; 13,56</t>
+          <t>0,73; 13,23</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-17,52; 37,7</t>
+          <t>-16,08; 41,01</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-31,94; 15,26</t>
+          <t>-32,46; 18,04</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,64; 196,18</t>
+          <t>-8,08; 189,96</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,62; 23,4</t>
+          <t>-15,48; 26,58</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,39; 15,14</t>
+          <t>-22,92; 16,62</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 39,92</t>
+          <t>-2,67; 39,34</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,55; 20,91</t>
+          <t>-10,22; 23,26</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 6,51</t>
+          <t>-21,69; 7,4</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>4,22; 79,78</t>
+          <t>3,48; 80,96</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,7; 5,28</t>
+          <t>1,74; 5,17</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,01; 4,24</t>
+          <t>1,11; 4,1</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,08; 9,74</t>
+          <t>3,01; 9,82</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,78</t>
+          <t>1,7; 6,05</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,55</t>
+          <t>-0,79; 3,22</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 2,44</t>
+          <t>-2,44; 2,41</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,33; 5,05</t>
+          <t>2,36; 5,0</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,72; 3,33</t>
+          <t>0,75; 3,2</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,32; 5,09</t>
+          <t>1,43; 5,0</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,66; 50,7</t>
+          <t>14,38; 49,17</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>8,03; 40,57</t>
+          <t>8,58; 39,17</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,57; 87,3</t>
+          <t>25,7; 90,23</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,08; 28,32</t>
+          <t>7,76; 29,88</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,56; 17,1</t>
+          <t>-3,58; 15,71</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-11,41; 11,95</t>
+          <t>-10,81; 11,7</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>13,49; 32,03</t>
+          <t>13,74; 31,69</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>4,28; 21,34</t>
+          <t>4,37; 20,04</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>7,3; 31,66</t>
+          <t>8,3; 31,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -690,12 +690,12 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,27; 12,82</t>
+          <t>0,34; 12,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 9,77</t>
+          <t>-1,43; 10,33</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,12 +705,12 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 16,82</t>
+          <t>2,28; 17,3</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,56; 7,07</t>
+          <t>-4,31; 7,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -720,12 +720,12 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,07; 13,1</t>
+          <t>3,4; 13,51</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 6,81</t>
+          <t>-1,38; 7,28</t>
         </is>
       </c>
     </row>
@@ -796,12 +796,12 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,46; 138,16</t>
+          <t>2,24; 137,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-13,02; 104,42</t>
+          <t>-10,39; 112,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -811,12 +811,12 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,7; 117,59</t>
+          <t>9,25; 117,68</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-20,62; 46,55</t>
+          <t>-19,79; 49,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -826,12 +826,12 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>15,98; 103,11</t>
+          <t>18,22; 104,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-6,35; 52,97</t>
+          <t>-7,91; 56,42</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 7,39</t>
+          <t>-2,0; 7,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 4,09</t>
+          <t>-4,37; 3,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,86; 9,84</t>
+          <t>0,16; 9,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,63; 8,43</t>
+          <t>-2,93; 8,18</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,62; 1,87</t>
+          <t>-9,32; 1,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 4,5</t>
+          <t>-5,0; 4,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 7,11</t>
+          <t>-0,66; 6,58</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 1,54</t>
+          <t>-5,06; 1,88</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,32; 5,68</t>
+          <t>-1,07; 5,95</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,83; 75,68</t>
+          <t>-13,6; 73,93</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-29,86; 40,53</t>
+          <t>-30,2; 35,99</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,9; 100,49</t>
+          <t>0,52; 91,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,63; 38,35</t>
+          <t>-10,28; 37,44</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-31,24; 8,4</t>
+          <t>-33,54; 8,36</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 20,46</t>
+          <t>-18,16; 20,82</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 42,89</t>
+          <t>-3,65; 38,2</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,32; 9,32</t>
+          <t>-25,53; 12,04</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,7; 34,34</t>
+          <t>-6,05; 35,58</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>2,51; 12,14</t>
+          <t>1,69; 12,14</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,52; 11,02</t>
+          <t>1,43; 10,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,5; 10,44</t>
+          <t>2,09; 10,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-5,45; 8,15</t>
+          <t>-4,86; 7,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-8,18; 5,09</t>
+          <t>-7,97; 4,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,44; 4,13</t>
+          <t>-6,85; 3,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,32; 8,21</t>
+          <t>0,4; 8,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 5,84</t>
+          <t>-1,89; 6,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 5,6</t>
+          <t>-1,08; 6,0</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>22,95; 220,4</t>
+          <t>14,77; 227,0</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,5; 220,04</t>
+          <t>13,14; 208,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,11; 196,99</t>
+          <t>14,11; 200,46</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-21,35; 46,12</t>
+          <t>-19,93; 42,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-33,77; 27,63</t>
+          <t>-32,29; 25,21</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-30,0; 22,79</t>
+          <t>-27,8; 19,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 62,83</t>
+          <t>2,47; 69,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-13,04; 47,24</t>
+          <t>-12,06; 48,26</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,62; 45,34</t>
+          <t>-6,57; 48,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 10,83</t>
+          <t>1,78; 10,04</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,54; 9,9</t>
+          <t>0,56; 10,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,0; 15,96</t>
+          <t>4,71; 15,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,37; 14,78</t>
+          <t>3,23; 14,57</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 11,83</t>
+          <t>-0,26; 12,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 6,76</t>
+          <t>-4,76; 6,43</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,18; 11,19</t>
+          <t>4,39; 11,19</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,39; 9,31</t>
+          <t>1,66; 9,44</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,97; 9,52</t>
+          <t>1,79; 10,02</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,19; 149,39</t>
+          <t>13,09; 148,72</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,81; 140,38</t>
+          <t>4,11; 132,88</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>32,19; 214,48</t>
+          <t>39,6; 212,31</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>18,63; 89,39</t>
+          <t>13,7; 84,8</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 67,89</t>
+          <t>-2,59; 66,45</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,59; 37,88</t>
+          <t>-19,2; 37,34</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,32; 85,57</t>
+          <t>25,12; 84,76</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>8,15; 72,01</t>
+          <t>9,78; 72,34</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12,48; 73,8</t>
+          <t>9,79; 76,91</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,09; 16,15</t>
+          <t>2,96; 16,14</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,43; 10,3</t>
+          <t>-0,13; 10,89</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 9,47</t>
+          <t>-0,71; 9,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,48; 20,57</t>
+          <t>4,19; 19,7</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 13,54</t>
+          <t>-2,44; 13,21</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 11,6</t>
+          <t>-4,76; 11,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,26; 15,64</t>
+          <t>5,0; 15,62</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 10,36</t>
+          <t>0,23; 9,96</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,41; 9,64</t>
+          <t>0,48; 9,62</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>14,16; 316,62</t>
+          <t>28,61; 320,99</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-9,46; 195,62</t>
+          <t>-2,37; 219,75</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 176,75</t>
+          <t>-8,41; 196,64</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,94; 158,74</t>
+          <t>20,06; 153,15</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-12,65; 103,84</t>
+          <t>-11,39; 110,39</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-21,25; 89,56</t>
+          <t>-20,69; 89,25</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>36,19; 161,55</t>
+          <t>32,88; 159,49</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,89; 102,86</t>
+          <t>1,73; 102,52</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>2,67; 101,59</t>
+          <t>4,33; 100,93</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,88; 13,12</t>
+          <t>1,62; 13,25</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,66; 16,44</t>
+          <t>3,55; 16,2</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,82; 4,75</t>
+          <t>-4,92; 4,17</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 9,89</t>
+          <t>-5,28; 10,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,67; 13,17</t>
+          <t>-1,12; 13,85</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-14,3; -2,31</t>
+          <t>-13,91; -2,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 9,76</t>
+          <t>-0,02; 9,63</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>3,35; 13,23</t>
+          <t>2,49; 12,79</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,39; -0,52</t>
+          <t>-7,89; -0,31</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>13,35; 164,28</t>
+          <t>10,44; 157,41</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>24,61; 194,08</t>
+          <t>23,65; 193,09</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-37,4; 61,65</t>
+          <t>-38,12; 49,92</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,81; 46,95</t>
+          <t>-18,94; 47,16</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-6,08; 61,86</t>
+          <t>-4,34; 65,65</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-48,52; -10,51</t>
+          <t>-47,57; -10,42</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 59,54</t>
+          <t>-0,12; 60,51</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>15,45; 83,02</t>
+          <t>12,47; 81,79</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,8; -2,87</t>
+          <t>-39,03; -2,34</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,92; 3,64</t>
+          <t>-3,38; 3,82</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 4,93</t>
+          <t>-2,53; 5,11</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,02; 8,65</t>
+          <t>0,65; 8,64</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,01</t>
+          <t>-2,47; 6,92</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-4,72; 4,48</t>
+          <t>-5,06; 4,37</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-9,12; 4,68</t>
+          <t>-8,58; 4,28</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,99; 4,15</t>
+          <t>-1,8; 4,0</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 3,54</t>
+          <t>-2,74; 3,48</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 5,34</t>
+          <t>-3,35; 5,24</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-27,29; 34,76</t>
+          <t>-25,54; 37,83</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-19,57; 48,58</t>
+          <t>-17,47; 49,95</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,44; 82,76</t>
+          <t>3,78; 82,58</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,67; 37,9</t>
+          <t>-10,58; 36,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-20,14; 22,94</t>
+          <t>-21,77; 23,59</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,77; 23,14</t>
+          <t>-38,86; 21,33</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 27,21</t>
+          <t>-9,83; 25,73</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-12,89; 22,7</t>
+          <t>-14,87; 21,68</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-15,07; 33,78</t>
+          <t>-18,08; 33,19</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 4,61</t>
+          <t>-2,83; 4,54</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,96</t>
+          <t>-4,66; 1,86</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,95; 22,69</t>
+          <t>-1,0; 22,46</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 4,82</t>
+          <t>-4,11; 4,06</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 3,03</t>
+          <t>-5,79; 2,62</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 7,39</t>
+          <t>-1,3; 7,37</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-1,84; 3,66</t>
+          <t>-2,2; 3,21</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-3,96; 1,23</t>
+          <t>-4,37; 1,2</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,73; 13,23</t>
+          <t>0,66; 13,0</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-16,08; 41,01</t>
+          <t>-18,85; 39,12</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,46; 18,04</t>
+          <t>-32,15; 16,79</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-8,08; 189,96</t>
+          <t>-7,41; 193,06</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-15,48; 26,58</t>
+          <t>-17,74; 21,59</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-22,92; 16,62</t>
+          <t>-24,48; 14,15</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 39,34</t>
+          <t>-5,66; 38,44</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 23,26</t>
+          <t>-11,98; 19,73</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-21,69; 7,4</t>
+          <t>-23,0; 7,54</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>3,48; 80,96</t>
+          <t>3,32; 79,41</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,74; 5,17</t>
+          <t>1,72; 5,02</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,11; 4,1</t>
+          <t>1,14; 4,32</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,01; 9,82</t>
+          <t>3,03; 9,72</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,7; 6,05</t>
+          <t>1,91; 5,95</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 3,22</t>
+          <t>-0,93; 3,21</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 2,41</t>
+          <t>-2,03; 2,38</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,36; 5,0</t>
+          <t>2,43; 5,12</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,75; 3,2</t>
+          <t>0,65; 3,28</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,43; 5,0</t>
+          <t>1,28; 4,94</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,38; 49,17</t>
+          <t>14,07; 47,82</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>8,58; 39,17</t>
+          <t>9,67; 41,93</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,7; 90,23</t>
+          <t>25,31; 90,4</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>7,76; 29,88</t>
+          <t>8,64; 29,21</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-3,58; 15,71</t>
+          <t>-4,12; 15,63</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-10,81; 11,7</t>
+          <t>-8,78; 11,75</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>13,74; 31,69</t>
+          <t>14,06; 32,16</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>4,37; 20,04</t>
+          <t>3,8; 20,9</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>8,3; 31,11</t>
+          <t>7,45; 30,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>3,14</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,22</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>1,68</t>
+          <t>0,85</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>7,46</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>3,1</t>
+          <t>2,0</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,38; 10,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 10,33</t>
+          <t>-2,56; 8,88</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,3; 17,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,31; 7,11</t>
+          <t>-5,06; 6,24</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,59; 11,82</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 7,28</t>
+          <t>-2,49; 6,21</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35,99%</t>
+          <t>26,26%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>9,13%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>49,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>20,57%</t>
+          <t>13,24%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,14; 117,42</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,39; 112,03</t>
+          <t>-17,71; 99,31</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,02; 121,04</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-19,79; 49,03</t>
+          <t>-22,72; 43,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,33; 92,47</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-7,91; 56,42</t>
+          <t>-14,4; 48,45</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,92</t>
+          <t>3,98</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-0,29</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>1,59</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,16; 9,38</t>
+          <t>-0,79; 8,29</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 4,52</t>
+          <t>-5,36; 3,95</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 5,95</t>
+          <t>-1,82; 5,2</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>40,3%</t>
+          <t>32,59%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-1,19%</t>
+          <t>-2,59%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,87%</t>
+          <t>8,69%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 91,22</t>
+          <t>-5,2; 81,62</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,16; 20,82</t>
+          <t>-19,34; 18,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-6,05; 35,58</t>
+          <t>-9,48; 31,18</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>6,08</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-1,71</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2,24</t>
+          <t>1,81</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2,09; 10,96</t>
+          <t>1,61; 10,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-6,85; 3,7</t>
+          <t>-7,19; 3,43</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 6,0</t>
+          <t>-1,57; 5,49</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>76,27%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-7,96%</t>
+          <t>-9,23%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>15,33%</t>
+          <t>12,42%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,11; 200,46</t>
+          <t>9,53; 191,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-27,8; 19,94</t>
+          <t>-28,82; 18,53</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 48,2</t>
+          <t>-9,1; 44,18</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,32</t>
+          <t>5,43</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>9,9</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>9,29</t>
+          <t>10,13</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>1,33</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,74</t>
+          <t>7,84</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>5,7</t>
+          <t>3,55</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,78; 10,04</t>
+          <t>1,08; 10,76</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,71; 15,97</t>
+          <t>4,32; 15,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,23; 14,57</t>
+          <t>3,71; 16,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 6,43</t>
+          <t>-11,64; 3,74</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,39; 11,19</t>
+          <t>3,85; 11,91</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>1,79; 10,02</t>
+          <t>-1,85; 8,18</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>68,43%</t>
+          <t>58,87%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>107,25%</t>
+          <t>103,48%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>45,46%</t>
+          <t>49,59%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>-10,55%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>51,87%</t>
+          <t>52,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>23,76%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>13,09; 148,72</t>
+          <t>7,54; 145,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>39,6; 212,31</t>
+          <t>38,61; 209,05</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>13,7; 84,8</t>
+          <t>16,31; 93,81</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-19,2; 37,34</t>
+          <t>-47,91; 20,43</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>25,12; 84,76</t>
+          <t>23,5; 89,72</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>9,79; 76,91</t>
+          <t>-11,19; 61,16</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>4,72</t>
+          <t>4,66</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>4,71</t>
+          <t>2,71</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>4,3</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 9,68</t>
+          <t>-0,76; 9,57</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 11,54</t>
+          <t>-10,17; 10,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0,48; 9,62</t>
+          <t>-1,39; 8,77</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>63,35%</t>
+          <t>62,47%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>28,19%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>43,67%</t>
+          <t>35,42%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,41; 196,64</t>
+          <t>-8,63; 195,78</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-20,69; 89,25</t>
+          <t>-43,47; 73,92</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>4,33; 100,93</t>
+          <t>-9,75; 91,56</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-0,05</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-4,37</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 4,17</t>
+          <t>-5,24; 3,93</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,91; -2,39</t>
+          <t>-13,9; -2,38</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-7,89; -0,31</t>
+          <t>-8,01; -0,44</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-2,12%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>-32,6%</t>
+          <t>-32,59%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-23,49%</t>
+          <t>-24,35%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 49,92</t>
+          <t>-39,26; 47,05</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,57; -10,42</t>
+          <t>-47,69; -10,63</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,03; -2,34</t>
+          <t>-39,9; -3,4</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>4,37</t>
+          <t>3,93</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>-0,48</t>
+          <t>-3,2</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>2,12</t>
+          <t>0,43</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,65; 8,64</t>
+          <t>0,22; 8,19</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-8,58; 4,28</t>
+          <t>-13,58; 3,69</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-3,35; 5,24</t>
+          <t>-7,2; 4,24</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>35,6%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>-2,27%</t>
+          <t>-14,99%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>12,54%</t>
+          <t>2,55%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>3,78; 82,58</t>
+          <t>0,67; 78,79</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-38,86; 21,33</t>
+          <t>-59,15; 17,48</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-18,08; 33,19</t>
+          <t>-36,87; 26,59</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>5,3</t>
+          <t>23,07</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>3,33</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>4,23</t>
+          <t>13,88</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 22,46</t>
+          <t>-0,69; 57,74</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,3; 7,37</t>
+          <t>-1,21; 7,32</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,66; 13,0</t>
+          <t>0,91; 40,58</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>40,72%</t>
+          <t>177,4%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>15,83%</t>
+          <t>16,15%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>24,67%</t>
+          <t>81,0%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 193,06</t>
+          <t>-4,93; 523,21</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,66; 38,44</t>
+          <t>-5,34; 38,44</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>3,32; 79,41</t>
+          <t>5,2; 256,61</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>5,13</t>
+          <t>9,55</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,38</t>
+          <t>-1,06</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>2,85</t>
+          <t>4,16</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>3,03; 9,72</t>
+          <t>2,97; 27,19</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 2,38</t>
+          <t>-4,9; 1,26</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,28; 4,94</t>
+          <t>0,83; 15,3</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>45,93%</t>
+          <t>85,59%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>1,78%</t>
+          <t>-4,95%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>17,38%</t>
+          <t>25,42%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,31; 90,4</t>
+          <t>25,15; 248,6</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-8,78; 11,75</t>
+          <t>-21,92; 6,01</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>7,45; 30,43</t>
+          <t>5,06; 89,45</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P8_1_R-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 10,55</t>
+          <t>-1,48; 11,01</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 12,45</t>
+          <t>0,68; 12,99</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 8,88</t>
+          <t>-3,14; 8,77</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,3; 17,76</t>
+          <t>2,67; 17,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,28; 17,3</t>
+          <t>2,54; 16,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 6,24</t>
+          <t>-5,09; 6,93</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,59; 11,82</t>
+          <t>2,9; 12,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 13,51</t>
+          <t>3,37; 13,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 6,21</t>
+          <t>-1,66; 6,37</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-9,14; 117,42</t>
+          <t>-13,53; 117,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,24; 137,54</t>
+          <t>2,53; 140,62</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-17,71; 99,31</t>
+          <t>-20,45; 98,29</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>8,02; 121,04</t>
+          <t>11,44; 116,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>9,25; 117,68</t>
+          <t>11,66; 112,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 43,26</t>
+          <t>-23,11; 47,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,33; 92,47</t>
+          <t>16,92; 92,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,22; 104,3</t>
+          <t>18,57; 107,88</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-14,4; 48,45</t>
+          <t>-9,67; 51,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,0; 7,59</t>
+          <t>-2,08; 6,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 3,66</t>
+          <t>-4,32; 3,86</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 8,29</t>
+          <t>-0,3; 8,61</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 8,18</t>
+          <t>-2,52; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-9,32; 1,7</t>
+          <t>-8,3; 2,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,36; 3,95</t>
+          <t>-5,74; 4,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,58</t>
+          <t>-0,81; 6,71</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 1,88</t>
+          <t>-5,33; 1,52</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,82; 5,2</t>
+          <t>-1,64; 5,33</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-13,6; 73,93</t>
+          <t>-14,52; 66,3</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-30,2; 35,99</t>
+          <t>-29,99; 40,22</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 81,62</t>
+          <t>-3,18; 86,53</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-10,28; 37,44</t>
+          <t>-9,25; 40,46</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,54; 8,36</t>
+          <t>-30,63; 11,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-19,34; 18,79</t>
+          <t>-20,61; 18,72</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 38,2</t>
+          <t>-4,5; 40,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-25,53; 12,04</t>
+          <t>-26,27; 9,51</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-9,48; 31,18</t>
+          <t>-8,27; 33,14</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,69; 12,14</t>
+          <t>2,08; 12,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>1,43; 10,58</t>
+          <t>1,66; 10,72</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,61; 10,44</t>
+          <t>1,55; 10,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-4,86; 7,89</t>
+          <t>-4,67; 8,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 4,46</t>
+          <t>-7,75; 5,07</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-7,19; 3,43</t>
+          <t>-7,41; 3,69</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,4; 8,75</t>
+          <t>0,06; 8,53</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-1,89; 6,01</t>
+          <t>-1,8; 6,09</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 5,49</t>
+          <t>-1,88; 5,3</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>14,77; 227,0</t>
+          <t>20,61; 222,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>13,14; 208,56</t>
+          <t>11,82; 188,75</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>9,53; 191,05</t>
+          <t>12,22; 185,56</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-19,93; 42,4</t>
+          <t>-19,14; 48,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-32,29; 25,21</t>
+          <t>-31,98; 28,33</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-28,82; 18,53</t>
+          <t>-29,26; 22,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2,47; 69,25</t>
+          <t>-0,18; 67,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-12,06; 48,26</t>
+          <t>-11,74; 47,03</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-9,1; 44,18</t>
+          <t>-11,32; 42,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,08; 10,76</t>
+          <t>0,92; 10,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,56; 10,0</t>
+          <t>0,18; 9,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 15,51</t>
+          <t>4,05; 15,61</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,71; 16,07</t>
+          <t>4,21; 16,13</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 12,38</t>
+          <t>-0,98; 11,62</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-11,64; 3,74</t>
+          <t>-10,73; 4,35</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>3,85; 11,91</t>
+          <t>3,75; 12,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,66; 9,44</t>
+          <t>1,26; 9,25</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 8,18</t>
+          <t>-1,71; 7,67</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>7,54; 145,6</t>
+          <t>7,51; 144,23</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>4,11; 132,88</t>
+          <t>-0,6; 125,75</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>38,61; 209,05</t>
+          <t>33,95; 211,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>16,31; 93,81</t>
+          <t>17,99; 90,6</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 66,45</t>
+          <t>-3,98; 66,12</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-47,91; 20,43</t>
+          <t>-47,14; 21,97</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>23,5; 89,72</t>
+          <t>21,22; 89,61</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>9,78; 72,34</t>
+          <t>7,72; 71,8</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-11,19; 61,16</t>
+          <t>-9,65; 58,18</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,96; 16,14</t>
+          <t>2,89; 15,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,89</t>
+          <t>-0,48; 10,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 9,57</t>
+          <t>-0,32; 9,38</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,19; 19,7</t>
+          <t>4,03; 19,63</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 13,21</t>
+          <t>-1,69; 13,32</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-10,17; 10,22</t>
+          <t>-9,91; 9,78</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>5,0; 15,62</t>
+          <t>5,17; 15,76</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0,23; 9,96</t>
+          <t>0,67; 10,07</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 8,77</t>
+          <t>-2,52; 8,43</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>28,61; 320,99</t>
+          <t>22,28; 302,36</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-2,37; 219,75</t>
+          <t>-6,06; 216,9</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-8,63; 195,78</t>
+          <t>-6,2; 179,7</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>20,06; 153,15</t>
+          <t>17,59; 150,54</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,39; 110,39</t>
+          <t>-10,4; 97,07</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 73,92</t>
+          <t>-39,21; 72,15</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>32,88; 159,49</t>
+          <t>35,39; 167,4</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>1,73; 102,52</t>
+          <t>3,46; 100,09</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-9,75; 91,56</t>
+          <t>-15,87; 85,14</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,62; 13,25</t>
+          <t>1,14; 13,58</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>3,55; 16,2</t>
+          <t>4,02; 16,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-5,24; 3,93</t>
+          <t>-4,88; 4,68</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 10,15</t>
+          <t>-5,37; 9,29</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 13,85</t>
+          <t>-2,26; 13,59</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-13,9; -2,38</t>
+          <t>-14,63; -1,94</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,02; 9,63</t>
+          <t>0,13; 9,8</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2,49; 12,79</t>
+          <t>2,78; 13,09</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-8,01; -0,44</t>
+          <t>-8,72; -0,57</t>
         </is>
       </c>
     </row>
@@ -1871,54 +1871,54 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>10,44; 157,41</t>
+          <t>7,39; 162,55</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>23,65; 193,09</t>
+          <t>27,68; 206,8</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-39,26; 47,05</t>
+          <t>-35,83; 58,22</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 47,16</t>
+          <t>-18,72; 44,23</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 65,65</t>
+          <t>-7,81; 64,63</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-47,69; -10,63</t>
+          <t>-49,15; -9,77</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 60,51</t>
+          <t>0,07; 63,67</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>12,47; 81,79</t>
+          <t>13,21; 82,27</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-39,9; -3,4</t>
+          <t>-41,65; -3,89</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-3,38; 3,82</t>
+          <t>-3,91; 3,53</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,53; 5,11</t>
+          <t>-2,38; 5,38</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>0,22; 8,19</t>
+          <t>-0,2; 8,08</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 6,92</t>
+          <t>-2,46; 6,64</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-5,06; 4,37</t>
+          <t>-4,54; 4,59</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-13,58; 3,69</t>
+          <t>-13,18; 3,91</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 4,0</t>
+          <t>-1,66; 4,31</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 3,48</t>
+          <t>-2,55; 3,7</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-7,2; 4,24</t>
+          <t>-6,16; 3,94</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-25,54; 37,83</t>
+          <t>-27,46; 34,59</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-17,47; 49,95</t>
+          <t>-17,45; 54,55</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>0,67; 78,79</t>
+          <t>-1,95; 76,66</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 36,22</t>
+          <t>-10,41; 34,22</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 23,59</t>
+          <t>-19,43; 24,27</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-59,15; 17,48</t>
+          <t>-56,9; 19,32</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-9,83; 25,73</t>
+          <t>-9,37; 28,05</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-14,87; 21,68</t>
+          <t>-14,34; 23,98</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-36,87; 26,59</t>
+          <t>-34,65; 23,41</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 4,54</t>
+          <t>-2,42; 4,79</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-4,66; 1,86</t>
+          <t>-4,75; 1,87</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>-0,69; 57,74</t>
+          <t>-0,92; 57,54</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 4,06</t>
+          <t>-4,23; 4,57</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 2,62</t>
+          <t>-5,8; 3,0</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 7,32</t>
+          <t>-0,58; 7,5</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,21</t>
+          <t>-2,02; 3,38</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 1,2</t>
+          <t>-4,2; 1,32</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>0,91; 40,58</t>
+          <t>1,1; 38,89</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-18,85; 39,12</t>
+          <t>-16,82; 41,44</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-32,15; 16,79</t>
+          <t>-32,15; 16,88</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 523,21</t>
+          <t>-6,27; 526,04</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-17,74; 21,59</t>
+          <t>-17,7; 24,55</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-24,48; 14,15</t>
+          <t>-24,98; 15,9</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-5,34; 38,44</t>
+          <t>-2,62; 39,98</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-11,98; 19,73</t>
+          <t>-10,66; 21,62</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-23,0; 7,54</t>
+          <t>-23,17; 8,35</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>5,2; 256,61</t>
+          <t>5,85; 225,42</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>1,72; 5,02</t>
+          <t>1,89; 5,17</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,32</t>
+          <t>1,04; 4,21</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>2,97; 27,19</t>
+          <t>2,99; 27,54</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,95</t>
+          <t>1,79; 5,93</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,21</t>
+          <t>-0,77; 3,13</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 1,26</t>
+          <t>-5,29; 1,23</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,12</t>
+          <t>2,31; 5,09</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>0,65; 3,28</t>
+          <t>0,66; 3,35</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>0,83; 15,3</t>
+          <t>0,66; 14,55</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>14,07; 47,82</t>
+          <t>15,04; 49,25</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>9,67; 41,93</t>
+          <t>8,69; 40,97</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25,15; 248,6</t>
+          <t>25,68; 257,17</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>8,64; 29,21</t>
+          <t>8,08; 29,41</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>-4,12; 15,63</t>
+          <t>-3,36; 15,36</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-21,92; 6,01</t>
+          <t>-23,53; 5,78</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>14,06; 32,16</t>
+          <t>13,25; 32,01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>3,8; 20,9</t>
+          <t>3,56; 21,05</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,06; 89,45</t>
+          <t>3,72; 86,65</t>
         </is>
       </c>
     </row>
